--- a/bdrmenores.xlsx
+++ b/bdrmenores.xlsx
@@ -28,88 +28,88 @@
     <t>Spread</t>
   </si>
   <si>
-    <t>RIO TINTO</t>
-  </si>
-  <si>
-    <t>SL GREEN REA</t>
+    <t>SONY GROUP</t>
   </si>
   <si>
     <t>HONDA MO</t>
   </si>
   <si>
+    <t>LILLY</t>
+  </si>
+  <si>
+    <t>ALPHABET</t>
+  </si>
+  <si>
+    <t>UNILEVER</t>
+  </si>
+  <si>
+    <t>STARBUCKS</t>
+  </si>
+  <si>
     <t>SPOTIFY TECH</t>
   </si>
   <si>
-    <t>CARNIVAL COR</t>
-  </si>
-  <si>
-    <t>BNY MELLON</t>
-  </si>
-  <si>
-    <t>NASDAQ INC</t>
-  </si>
-  <si>
-    <t>SIMON PROP</t>
+    <t>NOVO NORDISK</t>
+  </si>
+  <si>
+    <t>GE</t>
   </si>
   <si>
     <t>FIRST SOLAR</t>
   </si>
   <si>
-    <t>GE</t>
-  </si>
-  <si>
-    <t>RIOT34</t>
-  </si>
-  <si>
-    <t>S1LG34</t>
+    <t>SNEC34</t>
   </si>
   <si>
     <t>HOND34</t>
   </si>
   <si>
+    <t>LILY34</t>
+  </si>
+  <si>
+    <t>GOGL35</t>
+  </si>
+  <si>
+    <t>ULEV34</t>
+  </si>
+  <si>
+    <t>SBUB34</t>
+  </si>
+  <si>
     <t>S1PO34</t>
   </si>
   <si>
-    <t>C1CL34</t>
-  </si>
-  <si>
-    <t>BONY34</t>
-  </si>
-  <si>
-    <t>N1DA34</t>
-  </si>
-  <si>
-    <t>SIMN34</t>
+    <t>N1VO34</t>
+  </si>
+  <si>
+    <t>GEOO34</t>
   </si>
   <si>
     <t>FSLR34</t>
   </si>
   <si>
-    <t>GEOO34</t>
-  </si>
-  <si>
-    <t>RIO</t>
-  </si>
-  <si>
-    <t>SLG</t>
+    <t>SONY</t>
   </si>
   <si>
     <t>HMC</t>
   </si>
   <si>
+    <t>LLY</t>
+  </si>
+  <si>
+    <t>GOOGL</t>
+  </si>
+  <si>
+    <t>UL</t>
+  </si>
+  <si>
+    <t>SBUX</t>
+  </si>
+  <si>
     <t>SPOT</t>
   </si>
   <si>
-    <t>CCL</t>
-  </si>
-  <si>
-    <t>BK</t>
-  </si>
-  <si>
-    <t>NDAQ</t>
-  </si>
-  <si>
-    <t>SPG</t>
+    <t>NVO</t>
   </si>
   <si>
     <t>FSLR</t>
@@ -501,7 +501,7 @@
         <v>24</v>
       </c>
       <c r="D2">
-        <v>-0.82670555590812</v>
+        <v>-0.8336620851514454</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -515,7 +515,7 @@
         <v>25</v>
       </c>
       <c r="D3">
-        <v>-1.085535635944325</v>
+        <v>-0.9157171719361941</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -529,7 +529,7 @@
         <v>26</v>
       </c>
       <c r="D4">
-        <v>-1.162877402290178</v>
+        <v>-1.092155871784684</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -543,7 +543,7 @@
         <v>27</v>
       </c>
       <c r="D5">
-        <v>-1.257938756571093</v>
+        <v>-1.151974652311395</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -557,7 +557,7 @@
         <v>28</v>
       </c>
       <c r="D6">
-        <v>-1.400920855403911</v>
+        <v>-1.202138244285379</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -571,7 +571,7 @@
         <v>29</v>
       </c>
       <c r="D7">
-        <v>-1.45095730621324</v>
+        <v>-1.286501169204712</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -585,7 +585,7 @@
         <v>30</v>
       </c>
       <c r="D8">
-        <v>-1.675206545982292</v>
+        <v>-1.48986246428467</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -599,7 +599,7 @@
         <v>31</v>
       </c>
       <c r="D9">
-        <v>-1.763124074544976</v>
+        <v>-1.696018217520759</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -610,10 +610,10 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D10">
-        <v>-4.60768564463433</v>
+        <v>-2.582359579238982</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -624,10 +624,10 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D11">
-        <v>-8.848879760116688</v>
+        <v>-5.47585108581552</v>
       </c>
     </row>
   </sheetData>

--- a/bdrmenores.xlsx
+++ b/bdrmenores.xlsx
@@ -28,88 +28,88 @@
     <t>Spread</t>
   </si>
   <si>
+    <t>UNILEVER</t>
+  </si>
+  <si>
+    <t>STARBUCKS</t>
+  </si>
+  <si>
+    <t>SIMON PROP</t>
+  </si>
+  <si>
+    <t>TAKE-TWO INT</t>
+  </si>
+  <si>
+    <t>RIO TINTO</t>
+  </si>
+  <si>
+    <t>NEWMONT GOLD</t>
+  </si>
+  <si>
     <t>SONY GROUP</t>
   </si>
   <si>
-    <t>HONDA MO</t>
-  </si>
-  <si>
-    <t>LILLY</t>
-  </si>
-  <si>
-    <t>ALPHABET</t>
-  </si>
-  <si>
-    <t>UNILEVER</t>
-  </si>
-  <si>
-    <t>STARBUCKS</t>
-  </si>
-  <si>
-    <t>SPOTIFY TECH</t>
-  </si>
-  <si>
-    <t>NOVO NORDISK</t>
+    <t>EXELON CORP</t>
+  </si>
+  <si>
+    <t>FIRST SOLAR</t>
   </si>
   <si>
     <t>GE</t>
   </si>
   <si>
-    <t>FIRST SOLAR</t>
+    <t>ULEV34</t>
+  </si>
+  <si>
+    <t>SBUB34</t>
+  </si>
+  <si>
+    <t>SIMN34</t>
+  </si>
+  <si>
+    <t>T1TW34</t>
+  </si>
+  <si>
+    <t>RIOT34</t>
+  </si>
+  <si>
+    <t>N1EM34</t>
   </si>
   <si>
     <t>SNEC34</t>
   </si>
   <si>
-    <t>HOND34</t>
-  </si>
-  <si>
-    <t>LILY34</t>
-  </si>
-  <si>
-    <t>GOGL35</t>
-  </si>
-  <si>
-    <t>ULEV34</t>
-  </si>
-  <si>
-    <t>SBUB34</t>
-  </si>
-  <si>
-    <t>S1PO34</t>
-  </si>
-  <si>
-    <t>N1VO34</t>
+    <t>E1XC34</t>
+  </si>
+  <si>
+    <t>FSLR34</t>
   </si>
   <si>
     <t>GEOO34</t>
   </si>
   <si>
-    <t>FSLR34</t>
+    <t>UL</t>
+  </si>
+  <si>
+    <t>SBUX</t>
+  </si>
+  <si>
+    <t>SPG</t>
+  </si>
+  <si>
+    <t>TTWO</t>
+  </si>
+  <si>
+    <t>RIO</t>
+  </si>
+  <si>
+    <t>NEM</t>
   </si>
   <si>
     <t>SONY</t>
   </si>
   <si>
-    <t>HMC</t>
-  </si>
-  <si>
-    <t>LLY</t>
-  </si>
-  <si>
-    <t>GOOGL</t>
-  </si>
-  <si>
-    <t>UL</t>
-  </si>
-  <si>
-    <t>SBUX</t>
-  </si>
-  <si>
-    <t>SPOT</t>
-  </si>
-  <si>
-    <t>NVO</t>
+    <t>EXC</t>
   </si>
   <si>
     <t>FSLR</t>
@@ -501,7 +501,7 @@
         <v>24</v>
       </c>
       <c r="D2">
-        <v>-0.8336620851514454</v>
+        <v>-0.9637819683994167</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -515,7 +515,7 @@
         <v>25</v>
       </c>
       <c r="D3">
-        <v>-0.9157171719361941</v>
+        <v>-0.9653113482054323</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -529,7 +529,7 @@
         <v>26</v>
       </c>
       <c r="D4">
-        <v>-1.092155871784684</v>
+        <v>-1.046881824615411</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -543,7 +543,7 @@
         <v>27</v>
       </c>
       <c r="D5">
-        <v>-1.151974652311395</v>
+        <v>-1.699951767455786</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -557,7 +557,7 @@
         <v>28</v>
       </c>
       <c r="D6">
-        <v>-1.202138244285379</v>
+        <v>-1.790374337462708</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -571,7 +571,7 @@
         <v>29</v>
       </c>
       <c r="D7">
-        <v>-1.286501169204712</v>
+        <v>-1.794610365584958</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -585,7 +585,7 @@
         <v>30</v>
       </c>
       <c r="D8">
-        <v>-1.48986246428467</v>
+        <v>-2.766754536773078</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -599,7 +599,7 @@
         <v>31</v>
       </c>
       <c r="D9">
-        <v>-1.696018217520759</v>
+        <v>-3.415436804993078</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -610,10 +610,10 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="D10">
-        <v>-2.582359579238982</v>
+        <v>-4.278493672027253</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -624,10 +624,10 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="D11">
-        <v>-5.47585108581552</v>
+        <v>-5.450541017577052</v>
       </c>
     </row>
   </sheetData>
